--- a/fact.xlsx
+++ b/fact.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Un Sstrennen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8B0937-525C-4A6C-B1DB-890108EE0A59}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="1" xr2:uid="{85C6D3A4-AC20-4252-A22D-BD08234A27EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Тяжёлый" sheetId="1" r:id="rId1"/>
     <sheet name="Лёгкий" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>V съёмки</t>
   </si>
@@ -48,11 +47,17 @@
   <si>
     <t>м</t>
   </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>м/с2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +108,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -142,6 +147,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -190,6 +196,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>факт</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -240,8 +249,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -351,11 +361,180 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-608D-4BEA-86FF-5CF14DAF9D2F}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>теор</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Тяжёлый!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6666666666666665E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0416666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18374999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48166666666666658</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Тяжёлый!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -366,11 +545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408352111"/>
-        <c:axId val="500206047"/>
+        <c:axId val="851050304"/>
+        <c:axId val="851059008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408352111"/>
+        <c:axId val="851050304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,12 +592,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500206047"/>
+        <c:crossAx val="851059008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500206047"/>
+        <c:axId val="851059008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,7 +648,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408352111"/>
+        <c:crossAx val="851050304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -483,14 +662,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -526,7 +705,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -569,6 +748,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -720,7 +900,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B75B-4630-9640-FF4A6A7F0ECA}"/>
             </c:ext>
@@ -735,11 +915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="408352111"/>
-        <c:axId val="500206047"/>
+        <c:axId val="851051392"/>
+        <c:axId val="851054112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="408352111"/>
+        <c:axId val="851051392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,7 +962,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500206047"/>
+        <c:crossAx val="851054112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -790,7 +970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="500206047"/>
+        <c:axId val="851054112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +1021,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408352111"/>
+        <c:crossAx val="851051392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -855,14 +1035,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -898,7 +1078,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -937,6 +1117,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -985,6 +1166,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>факт</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1035,8 +1219,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1146,11 +1331,180 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FBC1-426D-B95E-8584A321CA14}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>теор</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лёгкий!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3003472222222227E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12534722222222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18368055555555557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27222222222222225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34453125000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41328124999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47534722222222225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56953125000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64201388888888888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86805555555555569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лёгкий!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -1161,11 +1515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408352111"/>
-        <c:axId val="500206047"/>
+        <c:axId val="851058464"/>
+        <c:axId val="1074791344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408352111"/>
+        <c:axId val="851058464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,12 +1562,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500206047"/>
+        <c:crossAx val="1074791344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500206047"/>
+        <c:axId val="1074791344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408352111"/>
+        <c:crossAx val="851058464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1278,14 +1632,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3008,7 +3362,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDDCE0A-8C47-49A8-9BCE-9682E31B7FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBDDCE0A-8C47-49A8-9BCE-9682E31B7FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3049,7 +3403,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CFAD14-6440-4D84-BFA3-9106057D7F57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7CFAD14-6440-4D84-BFA3-9106057D7F57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3087,7 +3441,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED994AC8-DF92-49AA-AAC4-F3AA0B8FC362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED994AC8-DF92-49AA-AAC4-F3AA0B8FC362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,11 +3760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D6D793-5B15-46E7-9E24-F8F5F116C14B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3456,6 +3810,10 @@
         <f>D2/$Q$2</f>
         <v>0</v>
       </c>
+      <c r="F2">
+        <f>($Q$3*E2^2)/2</f>
+        <v>0</v>
+      </c>
       <c r="P2" t="s">
         <v>0</v>
       </c>
@@ -3481,6 +3839,19 @@
         <f>D3/$Q$2</f>
         <v>0.13333333333333333</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">($Q$3*E3^2)/2</f>
+        <v>2.6666666666666665E-2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -3497,6 +3868,10 @@
         <f>D4/$Q$2</f>
         <v>0.21666666666666667</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>7.0416666666666669E-2</v>
+      </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -3513,6 +3888,10 @@
         <f>D5/$Q$2</f>
         <v>0.3</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.13500000000000001</v>
+      </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -3526,8 +3905,12 @@
         <v>10.5</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E13" si="1">D6/$Q$2</f>
+        <f t="shared" ref="E6:E13" si="2">D6/$Q$2</f>
         <v>0.35</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.18374999999999997</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
@@ -3542,8 +3925,12 @@
         <v>12</v>
       </c>
       <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.24000000000000005</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
@@ -3558,8 +3945,12 @@
         <v>14</v>
       </c>
       <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.46666666666666667</v>
+        <v>0.32666666666666666</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
@@ -3574,8 +3965,12 @@
         <v>15</v>
       </c>
       <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -3590,8 +3985,12 @@
         <v>16</v>
       </c>
       <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.53333333333333333</v>
+        <v>0.42666666666666664</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
@@ -3606,8 +4005,12 @@
         <v>17</v>
       </c>
       <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.56666666666666665</v>
+        <v>0.48166666666666658</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
@@ -3622,8 +4025,12 @@
         <v>18</v>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -3638,6 +4045,10 @@
         <v>20</v>
       </c>
       <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3648,7 +4059,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{33B63E07-56FB-4B97-9A22-0FBA01793531}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3671,11 +4082,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0206D93A-AD6B-4970-83B4-FCCF832FC182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3721,6 +4132,10 @@
         <f>D2/$Q$2</f>
         <v>0</v>
       </c>
+      <c r="F2">
+        <f>($Q$3*E2^2)/2</f>
+        <v>0</v>
+      </c>
       <c r="P2" t="s">
         <v>0</v>
       </c>
@@ -3746,6 +4161,19 @@
         <f>D3/$Q$2</f>
         <v>0.24166666666666667</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">($Q$3*E3^2)/2</f>
+        <v>7.3003472222222227E-2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>2.5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -3762,6 +4190,10 @@
         <f>D4/$Q$2</f>
         <v>0.31666666666666665</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.12534722222222222</v>
+      </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -3778,6 +4210,10 @@
         <f>D5/$Q$2</f>
         <v>0.38333333333333336</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.18368055555555557</v>
+      </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -3791,8 +4227,12 @@
         <v>56</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E13" si="1">D6/$Q$2</f>
+        <f t="shared" ref="E6:E13" si="2">D6/$Q$2</f>
         <v>0.46666666666666667</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.27222222222222225</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
@@ -3807,8 +4247,12 @@
         <v>63</v>
       </c>
       <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
+        <v>0.34453125000000001</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
@@ -3823,8 +4267,12 @@
         <v>69</v>
       </c>
       <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.57499999999999996</v>
+        <v>0.41328124999999993</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
@@ -3839,8 +4287,12 @@
         <v>74</v>
       </c>
       <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.6166666666666667</v>
+        <v>0.47534722222222225</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -3855,8 +4307,12 @@
         <v>81</v>
       </c>
       <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.67500000000000004</v>
+        <v>0.56953125000000004</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
@@ -3871,8 +4327,12 @@
         <v>86</v>
       </c>
       <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.71666666666666667</v>
+        <v>0.64201388888888888</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
@@ -3887,8 +4347,12 @@
         <v>90</v>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -3903,8 +4367,12 @@
         <v>100</v>
       </c>
       <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>0.86805555555555569</v>
       </c>
     </row>
   </sheetData>
@@ -3913,7 +4381,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{46F6A5CD-F106-442E-A4D1-8700CAA9D22B}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>

--- a/fact.xlsx
+++ b/fact.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Un Sstrennen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7EC8F7-FF22-4E0C-B7C8-B4AE0F791BDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тяжёлый" sheetId="1" r:id="rId1"/>
     <sheet name="Лёгкий" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>V съёмки</t>
   </si>
@@ -53,11 +54,17 @@
   <si>
     <t>м/с2</t>
   </si>
+  <si>
+    <t>Высота отметки, м</t>
+  </si>
+  <si>
+    <t>Значения по МНК</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +115,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -147,7 +154,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -249,9 +255,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -270,6 +275,21 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Тяжёлый!$E$2:$E$13</c:f>
@@ -361,7 +381,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-608D-4BEA-86FF-5CF14DAF9D2F}"/>
             </c:ext>
@@ -371,7 +391,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>теор</c:v>
+            <c:v>МНК</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -425,7 +445,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -444,6 +463,35 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Тяжёлый!$F$2:$F$13</c:f>
@@ -454,37 +502,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6666666666666665E-2</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0416666666666669E-2</c:v>
+                  <c:v>6.3375000000000015E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13500000000000001</c:v>
+                  <c:v>0.1215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18374999999999997</c:v>
+                  <c:v>0.16537499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24000000000000005</c:v>
+                  <c:v>0.21600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32666666666666666</c:v>
+                  <c:v>0.29400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.375</c:v>
+                  <c:v>0.33750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42666666666666664</c:v>
+                  <c:v>0.38400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.48166666666666658</c:v>
+                  <c:v>0.4335</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54</c:v>
+                  <c:v>0.48599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,6 +583,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6E6-4AEA-91E0-777BD97BEFAA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -660,16 +713,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -705,7 +789,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -748,7 +832,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -900,7 +983,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B75B-4630-9640-FF4A6A7F0ECA}"/>
             </c:ext>
@@ -1035,14 +1118,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1078,7 +1161,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1117,7 +1200,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1219,9 +1301,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1331,7 +1412,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FBC1-426D-B95E-8584A321CA14}"/>
             </c:ext>
@@ -1341,7 +1422,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>теор</c:v>
+            <c:v>МНК</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1395,7 +1476,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1424,37 +1504,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3003472222222227E-2</c:v>
+                  <c:v>7.8843750000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12534722222222222</c:v>
+                  <c:v>0.135375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18368055555555557</c:v>
+                  <c:v>0.19837500000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27222222222222225</c:v>
+                  <c:v>0.29400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34453125000000001</c:v>
+                  <c:v>0.37209375000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41328124999999993</c:v>
+                  <c:v>0.44634374999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47534722222222225</c:v>
+                  <c:v>0.51337500000000014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56953125000000004</c:v>
+                  <c:v>0.61509375000000011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64201388888888888</c:v>
+                  <c:v>0.69337500000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.703125</c:v>
+                  <c:v>0.75937500000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86805555555555569</c:v>
+                  <c:v>0.93750000000000022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,6 +1585,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BEF5-4B76-A9D0-EFF60517F03F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -1630,16 +1715,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3362,7 +3478,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBDDCE0A-8C47-49A8-9BCE-9682E31B7FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDDCE0A-8C47-49A8-9BCE-9682E31B7FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3519,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7CFAD14-6440-4D84-BFA3-9106057D7F57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CFAD14-6440-4D84-BFA3-9106057D7F57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3441,7 +3557,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED994AC8-DF92-49AA-AAC4-F3AA0B8FC362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED994AC8-DF92-49AA-AAC4-F3AA0B8FC362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,22 +3876,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
@@ -3784,6 +3904,9 @@
       </c>
       <c r="E1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
       </c>
       <c r="P1" t="s">
         <v>5</v>
@@ -3841,13 +3964,13 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F13" si="1">($Q$3*E3^2)/2</f>
-        <v>2.6666666666666665E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="P3" t="s">
         <v>7</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="s">
         <v>8</v>
@@ -3870,7 +3993,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>7.0416666666666669E-2</v>
+        <v>6.3375000000000015E-2</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
@@ -3890,7 +4013,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.13500000000000001</v>
+        <v>0.1215</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -3910,7 +4033,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.18374999999999997</v>
+        <v>0.16537499999999999</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
@@ -3930,7 +4053,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.24000000000000005</v>
+        <v>0.21600000000000005</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
@@ -3950,7 +4073,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.32666666666666666</v>
+        <v>0.29400000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
@@ -3970,7 +4093,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.33750000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -3990,7 +4113,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.42666666666666664</v>
+        <v>0.38400000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
@@ -4010,7 +4133,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.48166666666666658</v>
+        <v>0.4335</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
@@ -4030,7 +4153,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -4050,7 +4173,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -4059,7 +4182,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -4082,22 +4205,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
@@ -4106,6 +4233,9 @@
       </c>
       <c r="E1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
       </c>
       <c r="P1" t="s">
         <v>5</v>
@@ -4163,13 +4293,13 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F13" si="1">($Q$3*E3^2)/2</f>
-        <v>7.3003472222222227E-2</v>
+        <v>7.8843750000000004E-2</v>
       </c>
       <c r="P3" t="s">
         <v>7</v>
       </c>
       <c r="Q3">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="s">
         <v>8</v>
@@ -4192,7 +4322,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>0.12534722222222222</v>
+        <v>0.135375</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
@@ -4212,7 +4342,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.18368055555555557</v>
+        <v>0.19837500000000002</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -4232,7 +4362,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.27222222222222225</v>
+        <v>0.29400000000000004</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
@@ -4252,7 +4382,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.34453125000000001</v>
+        <v>0.37209375000000006</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
@@ -4272,7 +4402,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.41328124999999993</v>
+        <v>0.44634374999999998</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
@@ -4292,7 +4422,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.47534722222222225</v>
+        <v>0.51337500000000014</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -4312,7 +4442,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.56953125000000004</v>
+        <v>0.61509375000000011</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
@@ -4332,7 +4462,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.64201388888888888</v>
+        <v>0.69337500000000007</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
@@ -4352,7 +4482,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.703125</v>
+        <v>0.75937500000000002</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -4372,7 +4502,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.86805555555555569</v>
+        <v>0.93750000000000022</v>
       </c>
     </row>
   </sheetData>
@@ -4381,7 +4511,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0100-000001000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>

--- a/fact.xlsx
+++ b/fact.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Un Sstrennen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Un Sstrennen\Desktop\mephi_falling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7EC8F7-FF22-4E0C-B7C8-B4AE0F791BDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7EBFDA-E0F9-41E4-AE8C-C77EFBA22AAB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тяжёлый" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>V съёмки</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Высота отметки, м</t>
-  </si>
-  <si>
-    <t>Значения по МНК</t>
   </si>
 </sst>
 </file>
@@ -277,9 +274,9 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="41275" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FFC000"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -387,208 +384,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>МНК</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Тяжёлый!$F$2:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3375000000000015E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1215</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16537499999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.21600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.29400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.33750000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.38400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.4335</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.48599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Тяжёлый!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F6E6-4AEA-91E0-777BD97BEFAA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
@@ -600,6 +395,190 @@
         </c:dLbls>
         <c:axId val="851050304"/>
         <c:axId val="851059008"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>МНК</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ru-RU"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="log"/>
+                  <c:dispRSqr val="0"/>
+                  <c:dispEq val="0"/>
+                </c:trendline>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="poly"/>
+                  <c:order val="2"/>
+                  <c:dispRSqr val="0"/>
+                  <c:dispEq val="0"/>
+                </c:trendline>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Тяжёлый!$F$2:$F$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Тяжёлый!$C$2:$C$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.25</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.25</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-F6E6-4AEA-91E0-777BD97BEFAA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="851050304"/>
@@ -1321,6 +1300,51 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="47625" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лёгкий!$E$2:$E$13</c:f>
@@ -1415,179 +1439,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FBC1-426D-B95E-8584A321CA14}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>МНК</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лёгкий!$F$2:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.8843750000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.135375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19837500000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.29400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.37209375000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.44634374999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.51337500000000014</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61509375000000011</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.69337500000000007</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.75937500000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.93750000000000022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лёгкий!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BEF5-4B76-A9D0-EFF60517F03F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1602,6 +1453,161 @@
         </c:dLbls>
         <c:axId val="851058464"/>
         <c:axId val="1074791344"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>МНК</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="ru-RU"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лёгкий!$F$2:$F$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лёгкий!$C$2:$C$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.25</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.25</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-BEF5-4B76-A9D0-EFF60517F03F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="851058464"/>
@@ -3880,7 +3886,7 @@
   <dimension ref="B1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="F1" sqref="F1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3905,9 +3911,6 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
       <c r="P1" t="s">
         <v>5</v>
       </c>
@@ -3933,10 +3936,6 @@
         <f>D2/$Q$2</f>
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>($Q$3*E2^2)/2</f>
-        <v>0</v>
-      </c>
       <c r="P2" t="s">
         <v>0</v>
       </c>
@@ -3962,10 +3961,6 @@
         <f>D3/$Q$2</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F13" si="1">($Q$3*E3^2)/2</f>
-        <v>2.4E-2</v>
-      </c>
       <c r="P3" t="s">
         <v>7</v>
       </c>
@@ -3991,10 +3986,6 @@
         <f>D4/$Q$2</f>
         <v>0.21666666666666667</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>6.3375000000000015E-2</v>
-      </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -4011,10 +4002,6 @@
         <f>D5/$Q$2</f>
         <v>0.3</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0.1215</v>
-      </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -4028,12 +4015,8 @@
         <v>10.5</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E13" si="2">D6/$Q$2</f>
+        <f t="shared" ref="E6:E13" si="1">D6/$Q$2</f>
         <v>0.35</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0.16537499999999999</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
@@ -4048,12 +4031,8 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0.21600000000000005</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
@@ -4068,12 +4047,8 @@
         <v>14</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.46666666666666667</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.29400000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
@@ -4088,12 +4063,8 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0.33750000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -4108,12 +4079,8 @@
         <v>16</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.53333333333333333</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0.38400000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
@@ -4128,12 +4095,8 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.56666666666666665</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0.4335</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
@@ -4148,12 +4111,8 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.6</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -4168,12 +4127,8 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +4164,7 @@
   <dimension ref="B1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4234,9 +4189,6 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
       <c r="P1" t="s">
         <v>5</v>
       </c>
@@ -4262,10 +4214,6 @@
         <f>D2/$Q$2</f>
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>($Q$3*E2^2)/2</f>
-        <v>0</v>
-      </c>
       <c r="P2" t="s">
         <v>0</v>
       </c>
@@ -4291,10 +4239,6 @@
         <f>D3/$Q$2</f>
         <v>0.24166666666666667</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F13" si="1">($Q$3*E3^2)/2</f>
-        <v>7.8843750000000004E-2</v>
-      </c>
       <c r="P3" t="s">
         <v>7</v>
       </c>
@@ -4320,10 +4264,6 @@
         <f>D4/$Q$2</f>
         <v>0.31666666666666665</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0.135375</v>
-      </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -4340,10 +4280,6 @@
         <f>D5/$Q$2</f>
         <v>0.38333333333333336</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0.19837500000000002</v>
-      </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -4357,12 +4293,8 @@
         <v>56</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E13" si="2">D6/$Q$2</f>
+        <f t="shared" ref="E6:E13" si="1">D6/$Q$2</f>
         <v>0.46666666666666667</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0.29400000000000004</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
@@ -4377,12 +4309,8 @@
         <v>63</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.52500000000000002</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0.37209375000000006</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
@@ -4397,12 +4325,8 @@
         <v>69</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.57499999999999996</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.44634374999999998</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
@@ -4417,12 +4341,8 @@
         <v>74</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.6166666666666667</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0.51337500000000014</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -4437,12 +4357,8 @@
         <v>81</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.67500000000000004</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0.61509375000000011</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
@@ -4457,12 +4373,8 @@
         <v>86</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.71666666666666667</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0.69337500000000007</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
@@ -4477,12 +4389,8 @@
         <v>90</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.75</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0.75937500000000002</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -4497,12 +4405,8 @@
         <v>100</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0.93750000000000022</v>
       </c>
     </row>
   </sheetData>
